--- a/meta/program/BlancoRestGeneratorKtTelegramProcessStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramProcessStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C85A980-60C2-E348-8D99-C14551629F70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1AFF5C-6808-6547-994C-13B790411548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18780" yWindow="460" windowWidth="16700" windowHeight="17480" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -348,6 +348,25 @@
     <rPh sb="12" eb="14">
       <t>シテイシマス。</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>requestHeaderClass</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>responseHeaderClass</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リクエスト電文のヘッダクラス名（Canonical）</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レスポンス電文のヘッダクラス名（Canonical）</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -908,59 +927,59 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,7 +1372,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1397,7 +1416,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1422,10 +1441,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:F38"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1598,23 +1617,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="57"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1651,29 +1670,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="70" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6">
@@ -1711,7 +1730,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="32">
-        <f t="shared" ref="A29:A43" si="0">A28+1</f>
+        <f t="shared" ref="A29:A45" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="33" t="s">
@@ -1721,10 +1740,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="34"/>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="54"/>
+      <c r="F29" s="69"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="32">
@@ -1738,10 +1757,10 @@
         <v>30</v>
       </c>
       <c r="D30" s="45"/>
-      <c r="E30" s="67" t="s">
+      <c r="E30" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="68"/>
+      <c r="F30" s="59"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="32">
@@ -1789,10 +1808,10 @@
         <v>30</v>
       </c>
       <c r="D33" s="34"/>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="56"/>
+      <c r="F33" s="63"/>
     </row>
     <row r="34" spans="1:7" ht="50" customHeight="1">
       <c r="A34" s="32">
@@ -1806,10 +1825,10 @@
         <v>30</v>
       </c>
       <c r="D34" s="34"/>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="56"/>
+      <c r="F34" s="63"/>
     </row>
     <row r="35" spans="1:7" s="50" customFormat="1" ht="45">
       <c r="A35" s="32">
@@ -1825,10 +1844,10 @@
       <c r="D35" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="70"/>
+      <c r="F35" s="61"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" s="50" customFormat="1" ht="45">
@@ -1845,10 +1864,10 @@
       <c r="D36" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="69" t="s">
+      <c r="E36" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="70"/>
+      <c r="F36" s="61"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7">
@@ -1865,10 +1884,10 @@
       <c r="D37" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="67" t="s">
+      <c r="E37" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="68"/>
+      <c r="F37" s="59"/>
     </row>
     <row r="38" spans="1:7" s="50" customFormat="1" ht="15">
       <c r="A38" s="32">
@@ -1884,10 +1903,10 @@
       <c r="D38" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="62" t="s">
+      <c r="E38" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="54"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" s="50" customFormat="1" ht="15">
@@ -1902,10 +1921,10 @@
         <v>23</v>
       </c>
       <c r="D39" s="49"/>
-      <c r="E39" s="62" t="s">
+      <c r="E39" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="63"/>
+      <c r="F39" s="54"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" s="50" customFormat="1" ht="45" customHeight="1">
@@ -1922,10 +1941,10 @@
       <c r="D40" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="62" t="s">
+      <c r="E40" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="66"/>
+      <c r="F40" s="57"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" s="50" customFormat="1" ht="45">
@@ -1942,10 +1961,10 @@
       <c r="D41" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="62" t="s">
+      <c r="E41" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="63"/>
+      <c r="F41" s="54"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7" s="50" customFormat="1" ht="45">
@@ -1962,10 +1981,10 @@
       <c r="D42" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="64" t="s">
+      <c r="E42" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="65"/>
+      <c r="F42" s="56"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7">
@@ -1987,44 +2006,90 @@
       </c>
       <c r="F43" s="35"/>
     </row>
-    <row r="44" spans="1:7" ht="45" customHeight="1">
-      <c r="A44" s="47"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="34"/>
+    <row r="44" spans="1:7">
+      <c r="A44" s="32">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>30</v>
+      </c>
       <c r="D44" s="34"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="68"/>
+      <c r="E44" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="35"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="47"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="46"/>
+      <c r="A45" s="32">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="35"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="47"/>
       <c r="B46" s="33"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="35"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="59"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="24"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="37"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="46"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="47"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="35"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="24"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E46:F46"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E38:F38"/>
@@ -2032,18 +2097,6 @@
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="5">

--- a/meta/program/BlancoRestGeneratorKtTelegramProcessStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramProcessStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1AFF5C-6808-6547-994C-13B790411548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55166745-0E20-CB40-A460-D32DABBBC485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18780" yWindow="460" windowWidth="16700" windowHeight="17480" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -367,6 +367,60 @@
   </si>
   <si>
     <t>レスポンス電文のヘッダクラス名（Canonical）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>packageSuffix</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パッケージ名の後ろに付加する文字列をしていします。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">パッケージメイ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ウシロニ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">フカ </t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>overridePackage</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>定義書で指定されたパッケージ名を上書きします。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ウワガキシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>overrideLocation</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>定義書で指定されたロケーション名を上書きします。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ウワガキシマス。 </t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -714,17 +768,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -785,11 +828,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -908,78 +966,84 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1372,7 +1436,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1416,7 +1480,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1441,10 +1505,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1617,23 +1681,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="64"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1670,29 +1734,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="58" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6">
@@ -1730,7 +1794,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="32">
-        <f t="shared" ref="A29:A45" si="0">A28+1</f>
+        <f t="shared" ref="A29:A48" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="33" t="s">
@@ -1740,10 +1804,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="34"/>
-      <c r="E29" s="68" t="s">
+      <c r="E29" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="69"/>
+      <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="32">
@@ -1757,10 +1821,10 @@
         <v>30</v>
       </c>
       <c r="D30" s="45"/>
-      <c r="E30" s="58" t="s">
+      <c r="E30" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="59"/>
+      <c r="F30" s="68"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="32">
@@ -1808,10 +1872,10 @@
         <v>30</v>
       </c>
       <c r="D33" s="34"/>
-      <c r="E33" s="62" t="s">
+      <c r="E33" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="63"/>
+      <c r="F33" s="56"/>
     </row>
     <row r="34" spans="1:7" ht="50" customHeight="1">
       <c r="A34" s="32">
@@ -1825,49 +1889,49 @@
         <v>30</v>
       </c>
       <c r="D34" s="34"/>
-      <c r="E34" s="62" t="s">
+      <c r="E34" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="63"/>
-    </row>
-    <row r="35" spans="1:7" s="50" customFormat="1" ht="45">
+      <c r="F34" s="56"/>
+    </row>
+    <row r="35" spans="1:7" s="49" customFormat="1" ht="45">
       <c r="A35" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="61"/>
+      <c r="F35" s="70"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" s="50" customFormat="1" ht="45">
+    <row r="36" spans="1:7" s="49" customFormat="1" ht="45">
       <c r="A36" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="61"/>
+      <c r="F36" s="70"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7">
@@ -1881,110 +1945,110 @@
       <c r="C37" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="D37" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="58" t="s">
+      <c r="E37" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="59"/>
-    </row>
-    <row r="38" spans="1:7" s="50" customFormat="1" ht="15">
+      <c r="F37" s="68"/>
+    </row>
+    <row r="38" spans="1:7" s="49" customFormat="1" ht="15">
       <c r="A38" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="54"/>
+      <c r="F38" s="63"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" s="50" customFormat="1" ht="15">
+    <row r="39" spans="1:7" s="49" customFormat="1" ht="15">
       <c r="A39" s="32">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="53" t="s">
+      <c r="D39" s="48"/>
+      <c r="E39" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="54"/>
+      <c r="F39" s="63"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" s="50" customFormat="1" ht="45" customHeight="1">
+    <row r="40" spans="1:7" s="49" customFormat="1" ht="45" customHeight="1">
       <c r="A40" s="32">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E40" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="57"/>
+      <c r="F40" s="66"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" s="50" customFormat="1" ht="45">
+    <row r="41" spans="1:7" s="49" customFormat="1" ht="45">
       <c r="A41" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="53" t="s">
+      <c r="E41" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="54"/>
+      <c r="F41" s="63"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" s="50" customFormat="1" ht="45">
+    <row r="42" spans="1:7" s="49" customFormat="1" ht="45">
       <c r="A42" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="55" t="s">
+      <c r="E42" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="56"/>
+      <c r="F42" s="65"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7">
@@ -2040,52 +2104,80 @@
       </c>
       <c r="F45" s="35"/>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="47"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="59"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="47"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="46"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="47"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="35"/>
+    <row r="46" spans="1:7" s="49" customFormat="1" ht="15">
+      <c r="A46" s="32">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B46" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="72"/>
+      <c r="E46" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="63"/>
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="1:7" s="49" customFormat="1" ht="15">
+      <c r="A47" s="32">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B47" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="72"/>
+      <c r="E47" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="63"/>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:7" s="49" customFormat="1" ht="15">
+      <c r="A48" s="32">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B48" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="72"/>
+      <c r="E48" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="63"/>
+      <c r="G48"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="24"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="37"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="35"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="24"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
+  <mergeCells count="25">
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E47:F47"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="E40:F40"/>
@@ -2097,6 +2189,18 @@
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="5">

--- a/meta/program/BlancoRestGeneratorKtTelegramProcessStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramProcessStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55166745-0E20-CB40-A460-D32DABBBC485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B64C40-6188-AD42-B8D5-6610A6315184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18780" yWindow="460" windowWidth="16700" windowHeight="17480" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -420,6 +420,17 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t xml:space="preserve">ウワガキシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>clientAnnotationList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クライアントクラス（インタフェイス）のアノテーションを指定します。</t>
+    <rPh sb="27" eb="29">
+      <t>シテイシマス。</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -847,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -985,65 +996,68 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1436,7 +1450,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1480,7 +1494,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1505,10 +1519,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1681,23 +1695,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="57"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1734,29 +1748,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="73" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6">
@@ -1794,7 +1808,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="32">
-        <f t="shared" ref="A29:A48" si="0">A28+1</f>
+        <f t="shared" ref="A29:A49" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="33" t="s">
@@ -1804,10 +1818,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="34"/>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="54"/>
+      <c r="F29" s="72"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="32">
@@ -1821,10 +1835,10 @@
         <v>30</v>
       </c>
       <c r="D30" s="45"/>
-      <c r="E30" s="67" t="s">
+      <c r="E30" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="68"/>
+      <c r="F30" s="62"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="32">
@@ -1872,10 +1886,10 @@
         <v>30</v>
       </c>
       <c r="D33" s="34"/>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="56"/>
+      <c r="F33" s="66"/>
     </row>
     <row r="34" spans="1:7" ht="50" customHeight="1">
       <c r="A34" s="32">
@@ -1889,10 +1903,10 @@
         <v>30</v>
       </c>
       <c r="D34" s="34"/>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="56"/>
+      <c r="F34" s="66"/>
     </row>
     <row r="35" spans="1:7" s="49" customFormat="1" ht="45">
       <c r="A35" s="32">
@@ -1902,16 +1916,16 @@
       <c r="B35" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="70"/>
+      <c r="F35" s="64"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" s="49" customFormat="1" ht="45">
@@ -1920,58 +1934,58 @@
         <v>10</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="70"/>
+      <c r="E36" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="64"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" s="49" customFormat="1" ht="45">
       <c r="A37" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B37" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="68"/>
-    </row>
-    <row r="38" spans="1:7" s="49" customFormat="1" ht="15">
+      <c r="B37" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="64"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B38" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="48" t="s">
+      <c r="B38" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="63"/>
-      <c r="G38"/>
+      <c r="D38" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="62"/>
     </row>
     <row r="39" spans="1:7" s="49" customFormat="1" ht="15">
       <c r="A39" s="32">
@@ -1979,45 +1993,45 @@
         <v>13</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="63"/>
+        <v>40</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="57"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" s="49" customFormat="1" ht="45" customHeight="1">
+    <row r="40" spans="1:7" s="49" customFormat="1" ht="15">
       <c r="A40" s="32">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="66"/>
+        <v>23</v>
+      </c>
+      <c r="D40" s="48"/>
+      <c r="E40" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="57"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" s="49" customFormat="1" ht="45">
+    <row r="41" spans="1:7" s="49" customFormat="1" ht="45" customHeight="1">
       <c r="A41" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C41" s="48" t="s">
         <v>48</v>
@@ -2025,10 +2039,10 @@
       <c r="D41" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="63"/>
+      <c r="E41" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="60"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7" s="49" customFormat="1" ht="45">
@@ -2037,7 +2051,7 @@
         <v>16</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="48" t="s">
         <v>48</v>
@@ -2045,30 +2059,31 @@
       <c r="D42" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" s="65"/>
+      <c r="E42" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="57"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" s="49" customFormat="1" ht="45">
       <c r="A43" s="32">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B43" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="35"/>
+      <c r="B43" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="59"/>
+      <c r="G43"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="32">
@@ -2076,14 +2091,16 @@
         <v>18</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="34"/>
+        <v>66</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>43</v>
+      </c>
       <c r="E44" s="34" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F44" s="35"/>
     </row>
@@ -2093,51 +2110,50 @@
         <v>19</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="34"/>
       <c r="E45" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F45" s="35"/>
     </row>
-    <row r="46" spans="1:7" s="49" customFormat="1" ht="15">
+    <row r="46" spans="1:7">
       <c r="A46" s="32">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B46" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="52" t="s">
+      <c r="B46" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="72"/>
-      <c r="E46" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="F46" s="63"/>
-      <c r="G46"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="35"/>
     </row>
     <row r="47" spans="1:7" s="49" customFormat="1" ht="15">
       <c r="A47" s="32">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B47" s="71" t="s">
-        <v>77</v>
+      <c r="B47" s="54" t="s">
+        <v>75</v>
       </c>
       <c r="C47" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="72"/>
-      <c r="E47" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="63"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="57"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" s="49" customFormat="1" ht="15">
@@ -2145,55 +2161,55 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B48" s="71" t="s">
-        <v>79</v>
+      <c r="B48" s="54" t="s">
+        <v>77</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="72"/>
-      <c r="E48" s="62" t="s">
+      <c r="D48" s="55"/>
+      <c r="E48" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="57"/>
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="1:7" s="49" customFormat="1" ht="15">
+      <c r="A49" s="32">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="55"/>
+      <c r="E49" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="63"/>
-      <c r="G48"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="46"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="35"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="24"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="37"/>
+      <c r="F49" s="57"/>
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="46"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="35"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="24"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
+  <mergeCells count="26">
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="A25:A26"/>
@@ -2201,6 +2217,25 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E47:F47"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="5">

--- a/meta/program/BlancoRestGeneratorKtTelegramProcessStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramProcessStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B64C40-6188-AD42-B8D5-6610A6315184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205B77E6-4015-184F-9C9A-61F271FB6CF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18780" yWindow="460" windowWidth="16700" windowHeight="17480" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -431,6 +431,26 @@
     <t>クライアントクラス（インタフェイス）のアノテーションを指定します。</t>
     <rPh sb="27" eb="29">
       <t>シテイシマス。</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>noAuxiliaryAuthentication</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>補助的な認証が不要な場合はtrue</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ホジョテキナ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1005,6 +1025,45 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1019,45 +1078,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1450,7 +1470,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1494,7 +1514,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1519,10 +1539,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1695,23 +1715,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="70"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1748,29 +1768,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="73" t="s">
+      <c r="E25" s="61" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6">
@@ -1808,7 +1828,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="32">
-        <f t="shared" ref="A29:A49" si="0">A28+1</f>
+        <f t="shared" ref="A29:A50" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="33" t="s">
@@ -1818,10 +1838,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="34"/>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="72"/>
+      <c r="F29" s="57"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="32">
@@ -1835,10 +1855,10 @@
         <v>30</v>
       </c>
       <c r="D30" s="45"/>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="62"/>
+      <c r="F30" s="66"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="32">
@@ -1886,10 +1906,10 @@
         <v>30</v>
       </c>
       <c r="D33" s="34"/>
-      <c r="E33" s="65" t="s">
+      <c r="E33" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="66"/>
+      <c r="F33" s="59"/>
     </row>
     <row r="34" spans="1:7" ht="50" customHeight="1">
       <c r="A34" s="32">
@@ -1903,10 +1923,10 @@
         <v>30</v>
       </c>
       <c r="D34" s="34"/>
-      <c r="E34" s="65" t="s">
+      <c r="E34" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="66"/>
+      <c r="F34" s="59"/>
     </row>
     <row r="35" spans="1:7" s="49" customFormat="1" ht="45">
       <c r="A35" s="32">
@@ -1922,10 +1942,10 @@
       <c r="D35" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="64"/>
+      <c r="F35" s="68"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" s="49" customFormat="1" ht="45">
@@ -1942,10 +1962,10 @@
       <c r="D36" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="E36" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="64"/>
+      <c r="F36" s="68"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" s="49" customFormat="1" ht="45">
@@ -1962,10 +1982,10 @@
       <c r="D37" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="63" t="s">
+      <c r="E37" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="64"/>
+      <c r="F37" s="68"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7">
@@ -1982,30 +2002,29 @@
       <c r="D38" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="E38" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="62"/>
-    </row>
-    <row r="39" spans="1:7" s="49" customFormat="1" ht="15">
+      <c r="F38" s="66"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="32">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B39" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="48" t="s">
+      <c r="B39" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="57"/>
-      <c r="G39"/>
+      <c r="D39" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="66"/>
     </row>
     <row r="40" spans="1:7" s="49" customFormat="1" ht="15">
       <c r="A40" s="32">
@@ -2013,45 +2032,45 @@
         <v>14</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="48"/>
-      <c r="E40" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="57"/>
+        <v>40</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="70"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" s="49" customFormat="1" ht="45" customHeight="1">
+    <row r="41" spans="1:7" s="49" customFormat="1" ht="15">
       <c r="A41" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="60"/>
+        <v>23</v>
+      </c>
+      <c r="D41" s="48"/>
+      <c r="E41" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="70"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" s="49" customFormat="1" ht="45">
+    <row r="42" spans="1:7" s="49" customFormat="1" ht="45" customHeight="1">
       <c r="A42" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C42" s="48" t="s">
         <v>48</v>
@@ -2059,10 +2078,10 @@
       <c r="D42" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" s="57"/>
+      <c r="E42" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="73"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7" s="49" customFormat="1" ht="45">
@@ -2071,7 +2090,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C43" s="48" t="s">
         <v>48</v>
@@ -2079,30 +2098,31 @@
       <c r="D43" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" s="59"/>
+      <c r="E43" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="70"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" s="49" customFormat="1" ht="45">
       <c r="A44" s="32">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B44" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="35"/>
+      <c r="B44" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="72"/>
+      <c r="G44"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="32">
@@ -2110,14 +2130,16 @@
         <v>19</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="34"/>
+        <v>66</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>43</v>
+      </c>
       <c r="E45" s="34" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F45" s="35"/>
     </row>
@@ -2127,34 +2149,33 @@
         <v>20</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="34"/>
       <c r="E46" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F46" s="35"/>
     </row>
-    <row r="47" spans="1:7" s="49" customFormat="1" ht="15">
+    <row r="47" spans="1:7">
       <c r="A47" s="32">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B47" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="52" t="s">
+      <c r="B47" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="55"/>
-      <c r="E47" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="F47" s="57"/>
-      <c r="G47"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="35"/>
     </row>
     <row r="48" spans="1:7" s="49" customFormat="1" ht="15">
       <c r="A48" s="32">
@@ -2162,16 +2183,16 @@
         <v>22</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="55"/>
-      <c r="E48" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="57"/>
+      <c r="E48" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="70"/>
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" s="49" customFormat="1" ht="15">
@@ -2180,36 +2201,73 @@
         <v>23</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C49" s="52" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="55"/>
-      <c r="E49" s="56" t="s">
+      <c r="E49" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="70"/>
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="1:7" s="49" customFormat="1" ht="15">
+      <c r="A50" s="32">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="55"/>
+      <c r="E50" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="57"/>
-      <c r="G49"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="46"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="35"/>
+      <c r="F50" s="70"/>
+      <c r="G50"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="24"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="37"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="35"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="24"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="A25:A26"/>
@@ -2217,25 +2275,7 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E47:F47"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="5">

--- a/meta/program/BlancoRestGeneratorKtTelegramProcessStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramProcessStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205B77E6-4015-184F-9C9A-61F271FB6CF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6941E5E-58D5-8349-9EAD-18499ED87F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18780" yWindow="460" windowWidth="16700" windowHeight="17480" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6880" yWindow="500" windowWidth="16700" windowHeight="17480" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -452,6 +452,22 @@
     <rPh sb="10" eb="12">
       <t>バアイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>getRequestBindList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>java.util.List&lt;blanco.restgeneratorkt.valueobject.BlancoRestGeneratorKtGetRequestBindStructure&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Getリクエストパラメータのリスト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>new java.util.ArrayList&lt;blanco.restgeneratorkt.valueobject.BlancoRestGeneratorKtGetRequestBindStructure&gt;()</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -505,7 +521,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -874,11 +890,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1025,59 +1078,71 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1470,7 +1535,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1514,7 +1579,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1539,10 +1604,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:F40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1715,23 +1780,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="71"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="60"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="71"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1768,29 +1833,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="74" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6">
@@ -1828,7 +1893,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="32">
-        <f t="shared" ref="A29:A50" si="0">A28+1</f>
+        <f t="shared" ref="A29:A51" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="33" t="s">
@@ -1838,10 +1903,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="34"/>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="57"/>
+      <c r="F29" s="73"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="32">
@@ -1855,10 +1920,10 @@
         <v>30</v>
       </c>
       <c r="D30" s="45"/>
-      <c r="E30" s="65" t="s">
+      <c r="E30" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="66"/>
+      <c r="F30" s="65"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="32">
@@ -1906,10 +1971,10 @@
         <v>30</v>
       </c>
       <c r="D33" s="34"/>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="59"/>
+      <c r="F33" s="67"/>
     </row>
     <row r="34" spans="1:7" ht="50" customHeight="1">
       <c r="A34" s="32">
@@ -1923,10 +1988,10 @@
         <v>30</v>
       </c>
       <c r="D34" s="34"/>
-      <c r="E34" s="58" t="s">
+      <c r="E34" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="59"/>
+      <c r="F34" s="67"/>
     </row>
     <row r="35" spans="1:7" s="49" customFormat="1" ht="45">
       <c r="A35" s="32">
@@ -1942,10 +2007,10 @@
       <c r="D35" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="67" t="s">
+      <c r="E35" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="68"/>
+      <c r="F35" s="63"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" s="49" customFormat="1" ht="45">
@@ -1962,10 +2027,10 @@
       <c r="D36" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="67" t="s">
+      <c r="E36" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="68"/>
+      <c r="F36" s="63"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" s="49" customFormat="1" ht="45">
@@ -1982,10 +2047,10 @@
       <c r="D37" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="67" t="s">
+      <c r="E37" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="68"/>
+      <c r="F37" s="63"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7">
@@ -2002,10 +2067,10 @@
       <c r="D38" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="65" t="s">
+      <c r="E38" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="66"/>
+      <c r="F38" s="65"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="32">
@@ -2021,10 +2086,10 @@
       <c r="D39" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="65" t="s">
+      <c r="E39" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="66"/>
+      <c r="F39" s="65"/>
     </row>
     <row r="40" spans="1:7" s="49" customFormat="1" ht="15">
       <c r="A40" s="32">
@@ -2040,10 +2105,10 @@
       <c r="D40" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="69" t="s">
+      <c r="E40" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="70"/>
+      <c r="F40" s="58"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" s="49" customFormat="1" ht="15">
@@ -2058,10 +2123,10 @@
         <v>23</v>
       </c>
       <c r="D41" s="48"/>
-      <c r="E41" s="69" t="s">
+      <c r="E41" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="70"/>
+      <c r="F41" s="58"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7" s="49" customFormat="1" ht="45" customHeight="1">
@@ -2078,10 +2143,10 @@
       <c r="D42" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="69" t="s">
+      <c r="E42" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="73"/>
+      <c r="F42" s="61"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7" s="49" customFormat="1" ht="45">
@@ -2098,10 +2163,10 @@
       <c r="D43" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="69" t="s">
+      <c r="E43" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="70"/>
+      <c r="F43" s="58"/>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7" s="49" customFormat="1" ht="45">
@@ -2118,30 +2183,31 @@
       <c r="D44" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="71" t="s">
+      <c r="E44" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="72"/>
+      <c r="F44" s="60"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" s="49" customFormat="1" ht="90">
       <c r="A45" s="32">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B45" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="35"/>
+      <c r="B45" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="77"/>
+      <c r="G45"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="32">
@@ -2149,14 +2215,16 @@
         <v>20</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="34"/>
+        <v>66</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>43</v>
+      </c>
       <c r="E46" s="34" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F46" s="35"/>
     </row>
@@ -2166,34 +2234,33 @@
         <v>21</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="34"/>
       <c r="E47" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F47" s="35"/>
     </row>
-    <row r="48" spans="1:7" s="49" customFormat="1" ht="15">
+    <row r="48" spans="1:7">
       <c r="A48" s="32">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B48" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="52" t="s">
+      <c r="B48" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="F48" s="70"/>
-      <c r="G48"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="35"/>
     </row>
     <row r="49" spans="1:7" s="49" customFormat="1" ht="15">
       <c r="A49" s="32">
@@ -2201,16 +2268,16 @@
         <v>23</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C49" s="52" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="55"/>
-      <c r="E49" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="70"/>
+      <c r="E49" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="58"/>
       <c r="G49"/>
     </row>
     <row r="50" spans="1:7" s="49" customFormat="1" ht="15">
@@ -2219,42 +2286,67 @@
         <v>24</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C50" s="52" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="55"/>
-      <c r="E50" s="69" t="s">
+      <c r="E50" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="58"/>
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="1:7" s="49" customFormat="1" ht="15">
+      <c r="A51" s="32">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B51" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="55"/>
+      <c r="E51" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="F50" s="70"/>
-      <c r="G50"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="46"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="35"/>
+      <c r="F51" s="58"/>
+      <c r="G51"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="24"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="37"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="35"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="24"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E48:F48"/>
+  <mergeCells count="28">
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
@@ -2263,19 +2355,13 @@
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E39:F39"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E45:F45"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="5">

--- a/meta/program/BlancoRestGeneratorKtTelegramProcessStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramProcessStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/blanco/blancoRestGeneratorKt/meta/program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6941E5E-58D5-8349-9EAD-18499ED87F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E34F55A-488B-5A4A-9B78-8B180E547B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="500" windowWidth="16700" windowHeight="17480" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -931,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1081,67 +1081,70 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1535,7 +1538,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1579,7 +1582,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1604,10 +1607,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1780,23 +1783,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="68"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1833,29 +1836,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="74" t="s">
+      <c r="E25" s="71" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6">
@@ -1893,7 +1896,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="32">
-        <f t="shared" ref="A29:A51" si="0">A28+1</f>
+        <f t="shared" ref="A29:A52" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="33" t="s">
@@ -1903,10 +1906,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="34"/>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="73"/>
+      <c r="F29" s="70"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="32">
@@ -1920,10 +1923,10 @@
         <v>30</v>
       </c>
       <c r="D30" s="45"/>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="65"/>
+      <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="32">
@@ -1971,10 +1974,10 @@
         <v>30</v>
       </c>
       <c r="D33" s="34"/>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="67"/>
+      <c r="F33" s="62"/>
     </row>
     <row r="34" spans="1:7" ht="50" customHeight="1">
       <c r="A34" s="32">
@@ -1988,10 +1991,10 @@
         <v>30</v>
       </c>
       <c r="D34" s="34"/>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="67"/>
+      <c r="F34" s="62"/>
     </row>
     <row r="35" spans="1:7" s="49" customFormat="1" ht="45">
       <c r="A35" s="32">
@@ -2007,10 +2010,10 @@
       <c r="D35" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="62" t="s">
+      <c r="E35" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="64"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" s="49" customFormat="1" ht="45">
@@ -2027,10 +2030,10 @@
       <c r="D36" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="62" t="s">
+      <c r="E36" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="63"/>
+      <c r="F36" s="64"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" s="49" customFormat="1" ht="45">
@@ -2047,10 +2050,10 @@
       <c r="D37" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="62" t="s">
+      <c r="E37" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="63"/>
+      <c r="F37" s="64"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7">
@@ -2067,10 +2070,10 @@
       <c r="D38" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="65"/>
+      <c r="F38" s="60"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="32">
@@ -2086,10 +2089,10 @@
       <c r="D39" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="64" t="s">
+      <c r="E39" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="65"/>
+      <c r="F39" s="60"/>
     </row>
     <row r="40" spans="1:7" s="49" customFormat="1" ht="15">
       <c r="A40" s="32">
@@ -2105,10 +2108,10 @@
       <c r="D40" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="57" t="s">
+      <c r="E40" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="58"/>
+      <c r="F40" s="74"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" s="49" customFormat="1" ht="15">
@@ -2123,10 +2126,10 @@
         <v>23</v>
       </c>
       <c r="D41" s="48"/>
-      <c r="E41" s="57" t="s">
+      <c r="E41" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="58"/>
+      <c r="F41" s="74"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7" s="49" customFormat="1" ht="45" customHeight="1">
@@ -2143,10 +2146,10 @@
       <c r="D42" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="57" t="s">
+      <c r="E42" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="61"/>
+      <c r="F42" s="73"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7" s="49" customFormat="1" ht="45">
@@ -2163,10 +2166,10 @@
       <c r="D43" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="57" t="s">
+      <c r="E43" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="58"/>
+      <c r="F43" s="74"/>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7" s="49" customFormat="1" ht="45">
@@ -2183,10 +2186,10 @@
       <c r="D44" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="59" t="s">
+      <c r="E44" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="60"/>
+      <c r="F44" s="78"/>
       <c r="G44"/>
     </row>
     <row r="45" spans="1:7" s="49" customFormat="1" ht="90">
@@ -2194,7 +2197,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B45" s="75" t="s">
+      <c r="B45" s="57" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="56" t="s">
@@ -2203,10 +2206,10 @@
       <c r="D45" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="76" t="s">
+      <c r="E45" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="F45" s="77"/>
+      <c r="F45" s="76"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7">
@@ -2274,10 +2277,10 @@
         <v>30</v>
       </c>
       <c r="D49" s="55"/>
-      <c r="E49" s="57" t="s">
+      <c r="E49" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="58"/>
+      <c r="F49" s="74"/>
       <c r="G49"/>
     </row>
     <row r="50" spans="1:7" s="49" customFormat="1" ht="15">
@@ -2292,10 +2295,10 @@
         <v>30</v>
       </c>
       <c r="D50" s="55"/>
-      <c r="E50" s="57" t="s">
+      <c r="E50" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="F50" s="58"/>
+      <c r="F50" s="74"/>
       <c r="G50"/>
     </row>
     <row r="51" spans="1:7" s="49" customFormat="1" ht="15">
@@ -2310,30 +2313,51 @@
         <v>30</v>
       </c>
       <c r="D51" s="55"/>
-      <c r="E51" s="57" t="s">
+      <c r="E51" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="F51" s="58"/>
+      <c r="F51" s="74"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="46"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="35"/>
+    <row r="52" spans="1:7" s="49" customFormat="1">
+      <c r="A52" s="32"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="64"/>
+      <c r="G52"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="24"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="37"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="35"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="24"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="A25:A26"/>
@@ -2341,27 +2365,16 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E45:F45"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="5">

--- a/meta/program/BlancoRestGeneratorKtTelegramProcessStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramProcessStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/vscode/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E34F55A-488B-5A4A-9B78-8B180E547B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC966E9-EC28-2041-A16A-44774B364B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="500" windowWidth="16700" windowHeight="17480" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6880" yWindow="500" windowWidth="22260" windowHeight="17480" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -219,25 +219,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>この電文処理が使用する電文の一覧</t>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">デンブｎ </t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">ショリ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">シヨウスル </t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">デンブｎ </t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">イチラｎ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>basedir</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -468,6 +449,63 @@
   </si>
   <si>
     <t>new java.util.ArrayList&lt;blanco.restgeneratorkt.valueobject.BlancoRestGeneratorKtGetRequestBindStructure&gt;()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>errorTelegrams</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>この電文処理が使用するエラー電文。
+Map&lt;HttpMethod, List&lt;telegramStructure&gt;&gt; を想定。</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ショリ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">シヨウスル </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">ソウテイ。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>この電文処理が使用する電文の一覧。
+Map&lt;HttpMethod, Map&lt;telegramKind, telegramStructure&gt;&gt; となっているので、本当はMapなんだけど、初期にlistと命名しちゃったので、、、</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ショリ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">シヨウスル </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">イチラｎ </t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t xml:space="preserve">ホントウハ </t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t xml:space="preserve">ショキニ </t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t xml:space="preserve">メイメイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>java.util.Map&lt;java.lang.String, java.util.List&lt;blanco.restgeneratorkt.valueobject.BlancoRestGeneratorKtTelegramStructure&gt;&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -931,20 +969,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -966,12 +1004,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,7 +1062,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1035,10 +1071,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1059,33 +1095,44 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1094,58 +1141,43 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1538,7 +1570,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1582,7 +1614,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1607,10 +1639,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1654,7 +1686,7 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
@@ -1666,7 +1698,7 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="11"/>
@@ -1678,7 +1710,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1741,11 +1773,11 @@
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
@@ -1766,11 +1798,11 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
@@ -1783,47 +1815,47 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
       <c r="F22"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
@@ -1836,521 +1868,554 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="29"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="20">
+      <c r="A27" s="18">
         <v>1</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="31"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="32">
+      <c r="A28" s="30">
         <f>A27+1</f>
         <v>2</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34" t="s">
+      <c r="D28" s="32"/>
+      <c r="E28" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="35"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="32">
+      <c r="A29" s="30">
         <f t="shared" ref="A29:A52" si="0">A28+1</f>
         <v>3</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="69" t="s">
+      <c r="D29" s="32"/>
+      <c r="E29" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="70"/>
+      <c r="F29" s="63"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="32">
+      <c r="A30" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="59" t="s">
+      <c r="D30" s="43"/>
+      <c r="E30" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="60"/>
+      <c r="F30" s="61"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="32">
+      <c r="A31" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34" t="s">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="35"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="32">
+      <c r="A32" s="30">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34" t="s">
+      <c r="D32" s="32"/>
+      <c r="E32" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="35"/>
+      <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:7" ht="50" customHeight="1">
-      <c r="A33" s="32">
+      <c r="A33" s="30">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="62"/>
+      <c r="F33" s="65"/>
     </row>
     <row r="34" spans="1:7" ht="50" customHeight="1">
-      <c r="A34" s="32">
+      <c r="A34" s="30">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="62"/>
-    </row>
-    <row r="35" spans="1:7" s="49" customFormat="1" ht="45">
-      <c r="A35" s="32">
+      <c r="F34" s="65"/>
+    </row>
+    <row r="35" spans="1:7" ht="45">
+      <c r="A35" s="30">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="D35" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="53" t="s">
+      <c r="E35" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="64"/>
+      <c r="F35" s="52"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" s="49" customFormat="1" ht="45">
-      <c r="A36" s="32">
+    <row r="36" spans="1:7" ht="45">
+      <c r="A36" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" s="64"/>
+      <c r="F36" s="52"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" s="49" customFormat="1" ht="45">
-      <c r="A37" s="32">
+    <row r="37" spans="1:7" ht="45">
+      <c r="A37" s="30">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="64"/>
+      <c r="F37" s="52"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="32">
+      <c r="A38" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="59" t="s">
+      <c r="D38" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="60"/>
+      <c r="F38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="32">
+      <c r="A39" s="30">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="60"/>
-    </row>
-    <row r="40" spans="1:7" s="49" customFormat="1" ht="15">
-      <c r="A40" s="32">
+      <c r="F39" s="61"/>
+    </row>
+    <row r="40" spans="1:7" ht="15">
+      <c r="A40" s="30">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="48" t="s">
+      <c r="E40" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" s="74"/>
+      <c r="F40" s="54"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" s="49" customFormat="1" ht="15">
-      <c r="A41" s="32">
+    <row r="41" spans="1:7" ht="15">
+      <c r="A41" s="30">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="46"/>
+      <c r="E41" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="74"/>
+      <c r="F41" s="54"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" s="49" customFormat="1" ht="45" customHeight="1">
-      <c r="A42" s="32">
+    <row r="42" spans="1:7" ht="45" customHeight="1">
+      <c r="A42" s="30">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42" s="73"/>
+      <c r="F42" s="57"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" s="49" customFormat="1" ht="45">
-      <c r="A43" s="32">
+    <row r="43" spans="1:7" ht="45">
+      <c r="A43" s="30">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="74"/>
+      <c r="F43" s="54"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" s="49" customFormat="1" ht="45">
-      <c r="A44" s="32">
+    <row r="44" spans="1:7" ht="45">
+      <c r="A44" s="30">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" s="78"/>
+      <c r="F44" s="56"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" s="49" customFormat="1" ht="90">
-      <c r="A45" s="32">
+    <row r="45" spans="1:7" ht="90">
+      <c r="A45" s="30">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="D45" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="76"/>
+      <c r="F45" s="59"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="32">
+    <row r="46" spans="1:7" ht="105" customHeight="1">
+      <c r="A46" s="30">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="34" t="s">
+      <c r="C46" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="35"/>
+      <c r="E46" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="72"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="32">
+      <c r="A47" s="30">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B47" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="34" t="s">
+      <c r="B47" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" s="35"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="33"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="32">
+      <c r="A48" s="30">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B48" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="34" t="s">
+      <c r="B48" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="35"/>
-    </row>
-    <row r="49" spans="1:7" s="49" customFormat="1" ht="15">
-      <c r="A49" s="32">
+      <c r="D48" s="32"/>
+      <c r="E48" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="33"/>
+    </row>
+    <row r="49" spans="1:7" ht="15">
+      <c r="A49" s="30">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="49"/>
+      <c r="E49" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="55"/>
-      <c r="E49" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="F49" s="74"/>
+      <c r="F49" s="54"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" s="49" customFormat="1" ht="15">
-      <c r="A50" s="32">
+    <row r="50" spans="1:7" ht="15">
+      <c r="A50" s="30">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="49"/>
+      <c r="E50" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="55"/>
-      <c r="E50" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="F50" s="74"/>
+      <c r="F50" s="54"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" s="49" customFormat="1" ht="15">
-      <c r="A51" s="32">
+    <row r="51" spans="1:7" ht="15">
+      <c r="A51" s="30">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="49"/>
+      <c r="E51" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="55"/>
-      <c r="E51" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="F51" s="74"/>
+      <c r="F51" s="54"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" s="49" customFormat="1">
-      <c r="A52" s="32"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="64"/>
-      <c r="G52"/>
+    <row r="52" spans="1:7" ht="75" customHeight="1">
+      <c r="A52" s="30">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="74"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="46"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="35"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="52"/>
+      <c r="G53"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="24"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="37"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="33"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="22"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="31">
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E46:F46"/>
     <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E45:F45"/>
@@ -2358,23 +2423,11 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="5">
@@ -2442,48 +2495,48 @@
       <c r="M1" s="3"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="B4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="43"/>
+      <c r="B6" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/meta/program/BlancoRestGeneratorKtTelegramProcessStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramProcessStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/vscode/blanco/blancoRestGeneratorKt/meta/program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC966E9-EC28-2041-A16A-44774B364B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A277083-0348-4B4B-9F67-BC477ECCA178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="500" windowWidth="22260" windowHeight="17480" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -506,6 +506,31 @@
   </si>
   <si>
     <t>java.util.Map&lt;java.lang.String, java.util.List&lt;blanco.restgeneratorkt.valueobject.BlancoRestGeneratorKtTelegramStructure&gt;&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hasPrimitiveRequest</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>bodyにprimitiveを期待しているリクエストがある</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">キタイシテイル </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hasArrayRequest</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>bodyにTopレベルが配列JSONを期待しているリクエストがある</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ハイレツ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">キタイシテイル </t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1125,6 +1150,51 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1133,51 +1203,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1639,10 +1664,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55:F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1815,23 +1840,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="66"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="70"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1868,29 +1893,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="67" t="s">
+      <c r="E25" s="64" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
       <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6">
@@ -1928,7 +1953,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="30">
-        <f t="shared" ref="A29:A52" si="0">A28+1</f>
+        <f t="shared" ref="A29:A54" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="31" t="s">
@@ -1938,10 +1963,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="32"/>
-      <c r="E29" s="62" t="s">
+      <c r="E29" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="63"/>
+      <c r="F29" s="60"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="30">
@@ -1955,10 +1980,10 @@
         <v>30</v>
       </c>
       <c r="D30" s="43"/>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="61"/>
+      <c r="F30" s="58"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="30">
@@ -2006,10 +2031,10 @@
         <v>30</v>
       </c>
       <c r="D33" s="32"/>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="65"/>
+      <c r="F33" s="62"/>
     </row>
     <row r="34" spans="1:7" ht="50" customHeight="1">
       <c r="A34" s="30">
@@ -2023,10 +2048,10 @@
         <v>30</v>
       </c>
       <c r="D34" s="32"/>
-      <c r="E34" s="64" t="s">
+      <c r="E34" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="65"/>
+      <c r="F34" s="62"/>
     </row>
     <row r="35" spans="1:7" ht="45">
       <c r="A35" s="30">
@@ -2102,10 +2127,10 @@
       <c r="D38" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="61"/>
+      <c r="F38" s="58"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="30">
@@ -2121,10 +2146,10 @@
       <c r="D39" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="60" t="s">
+      <c r="E39" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="61"/>
+      <c r="F39" s="58"/>
     </row>
     <row r="40" spans="1:7" ht="15">
       <c r="A40" s="30">
@@ -2181,7 +2206,7 @@
       <c r="E42" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="57"/>
+      <c r="F42" s="72"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7" ht="45">
@@ -2238,10 +2263,10 @@
       <c r="D45" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="58" t="s">
+      <c r="E45" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="59"/>
+      <c r="F45" s="74"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" ht="105" customHeight="1">
@@ -2258,10 +2283,10 @@
       <c r="D46" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="71" t="s">
+      <c r="E46" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="72"/>
+      <c r="F46" s="69"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="30">
@@ -2365,43 +2390,88 @@
       <c r="D52" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="73" t="s">
+      <c r="E52" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="74"/>
+      <c r="F52" s="71"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="30"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="52"/>
-      <c r="G53"/>
+      <c r="A53" s="30">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="58"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="44"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="33"/>
+      <c r="A54" s="30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="58"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="22"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="35"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="52"/>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="44"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="33"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="22"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
@@ -2416,18 +2486,13 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E55:F55"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="5">

--- a/meta/program/BlancoRestGeneratorKtTelegramProcessStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramProcessStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A277083-0348-4B4B-9F67-BC477ECCA178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F010F987-13AE-E148-BD79-1A2DD755100A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="500" windowWidth="22260" windowHeight="17480" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -530,6 +530,17 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t xml:space="preserve">キタイシテイル </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>commonInterfaceList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Managementクラスが実装すべき共通インタフェース(java.lang.String)の一覧。</t>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">キョウツウ </t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1664,10 +1675,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55:F55"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1953,7 +1964,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="30">
-        <f t="shared" ref="A29:A54" si="0">A28+1</f>
+        <f t="shared" ref="A29:A55" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="31" t="s">
@@ -2209,13 +2220,13 @@
       <c r="F42" s="72"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="45">
+    <row r="43" spans="1:7" ht="45" customHeight="1">
       <c r="A43" s="30">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C43" s="46" t="s">
         <v>47</v>
@@ -2224,9 +2235,9 @@
         <v>48</v>
       </c>
       <c r="E43" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" s="54"/>
+        <v>97</v>
+      </c>
+      <c r="F43" s="72"/>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7" ht="45">
@@ -2235,7 +2246,7 @@
         <v>18</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C44" s="46" t="s">
         <v>47</v>
@@ -2243,67 +2254,70 @@
       <c r="D44" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="F44" s="56"/>
+      <c r="E44" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="54"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" ht="90">
+    <row r="45" spans="1:7" ht="45">
       <c r="A45" s="30">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B45" s="50" t="s">
-        <v>84</v>
+      <c r="B45" s="45" t="s">
+        <v>60</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="74"/>
+        <v>48</v>
+      </c>
+      <c r="E45" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="56"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" ht="105" customHeight="1">
+    <row r="46" spans="1:7" ht="90">
       <c r="A46" s="30">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B46" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="69"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="B46" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="74"/>
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="1:7" ht="105" customHeight="1">
       <c r="A47" s="30">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F47" s="33"/>
+        <v>65</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="69"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="30">
@@ -2311,34 +2325,33 @@
         <v>22</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="32"/>
       <c r="E48" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F48" s="33"/>
     </row>
-    <row r="49" spans="1:7" ht="15">
+    <row r="49" spans="1:7">
       <c r="A49" s="30">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B49" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="46" t="s">
+      <c r="B49" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="49"/>
-      <c r="E49" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="F49" s="54"/>
-      <c r="G49"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="33"/>
     </row>
     <row r="50" spans="1:7" ht="15">
       <c r="A50" s="30">
@@ -2346,14 +2359,14 @@
         <v>24</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C50" s="46" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="49"/>
       <c r="E50" s="53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F50" s="54"/>
       <c r="G50"/>
@@ -2364,55 +2377,54 @@
         <v>25</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" s="46" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="49"/>
       <c r="E51" s="53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F51" s="54"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" ht="75" customHeight="1">
+    <row r="52" spans="1:7" ht="15">
       <c r="A52" s="30">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B52" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="F52" s="71"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="B52" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="49"/>
+      <c r="E52" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="54"/>
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="1:7" ht="75" customHeight="1">
       <c r="A53" s="30">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E53" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" s="58"/>
+        <v>91</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" s="71"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="30">
@@ -2420,7 +2432,7 @@
         <v>28</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>40</v>
@@ -2429,49 +2441,69 @@
         <v>53</v>
       </c>
       <c r="E54" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="58"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="F54" s="58"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="30"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="52"/>
-      <c r="G55"/>
+      <c r="F55" s="58"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="44"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="33"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="52"/>
+      <c r="G56"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="22"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="35"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="33"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="22"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E50:F50"/>
     <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E45:F45"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E43:F43"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
@@ -2486,13 +2518,13 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E54:F54"/>
     <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="5">
